--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553359.59</v>
+        <v>562803.88</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138339.9</v>
+        <v>140700.97</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250838.68</v>
+        <v>251121.94</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>248338.3</v>
+        <v>243971.47</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20452.16</v>
+        <v>24341.76</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33730.45</v>
+        <v>43368.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,65 +439,88 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>562803.88</v>
+        <v>251121.94</v>
+      </c>
+      <c r="C2" t="n">
+        <v>250446.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140700.97</v>
+        <v>243971.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>251985.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251121.94</v>
+        <v>24341.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21066.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243971.47</v>
+        <v>43368.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37199.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24341.76</v>
+        <v>140700.97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>140174.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43368.71</v>
+        <v>562803.88</v>
+      </c>
+      <c r="C7" t="n">
+        <v>560697.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250446.63</v>
+        <v>247080.14</v>
       </c>
       <c r="C2" t="n">
-        <v>244796.51</v>
+        <v>249889.11</v>
       </c>
       <c r="D2" t="n">
-        <v>248279.1</v>
+        <v>256999.09</v>
       </c>
       <c r="E2" t="n">
-        <v>251574.31</v>
+        <v>251345.96</v>
       </c>
       <c r="F2" t="n">
-        <v>247890.23</v>
+        <v>252339.28</v>
       </c>
       <c r="G2" t="n">
-        <v>249037.44</v>
-      </c>
-      <c r="H2" t="n">
-        <v>251941.62</v>
-      </c>
-      <c r="I2" t="n">
-        <v>244553.76</v>
-      </c>
-      <c r="J2" t="n">
-        <v>247086.31</v>
-      </c>
-      <c r="K2" t="n">
-        <v>247033.74</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245122.79</v>
-      </c>
-      <c r="M2" t="n">
-        <v>247080.14</v>
+        <v>251178.35</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251985.17</v>
+        <v>248732.63</v>
       </c>
       <c r="C3" t="n">
-        <v>250883.82</v>
+        <v>258336.55</v>
       </c>
       <c r="D3" t="n">
-        <v>255162.84</v>
+        <v>252737.49</v>
       </c>
       <c r="E3" t="n">
-        <v>249070.92</v>
+        <v>255848.52</v>
       </c>
       <c r="F3" t="n">
-        <v>251798.89</v>
+        <v>251835.13</v>
       </c>
       <c r="G3" t="n">
-        <v>250163.45</v>
-      </c>
-      <c r="H3" t="n">
-        <v>254741.14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>255068.02</v>
-      </c>
-      <c r="J3" t="n">
-        <v>259282.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>256103.58</v>
-      </c>
-      <c r="L3" t="n">
-        <v>259366.74</v>
-      </c>
-      <c r="M3" t="n">
-        <v>248732.63</v>
+        <v>254499.62</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21066.07</v>
+        <v>22899.39</v>
       </c>
       <c r="C4" t="n">
-        <v>19393.31</v>
+        <v>23271.93</v>
       </c>
       <c r="D4" t="n">
-        <v>21144.52</v>
+        <v>23285.61</v>
       </c>
       <c r="E4" t="n">
-        <v>21747.42</v>
+        <v>22286.99</v>
       </c>
       <c r="F4" t="n">
-        <v>21653.45</v>
+        <v>24994.81</v>
       </c>
       <c r="G4" t="n">
-        <v>22608.18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21553.89</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19571.97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19602.27</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19628.33</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23616.06</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22899.39</v>
+        <v>24412.78</v>
       </c>
     </row>
     <row r="5">
@@ -631,149 +547,72 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37199.5</v>
+        <v>44847.47</v>
       </c>
       <c r="C5" t="n">
-        <v>34561.42</v>
+        <v>35110.7</v>
       </c>
       <c r="D5" t="n">
-        <v>41032.75</v>
+        <v>46729.01</v>
       </c>
       <c r="E5" t="n">
-        <v>43731.78</v>
+        <v>45502.91</v>
       </c>
       <c r="F5" t="n">
-        <v>45521.09</v>
+        <v>38408.01</v>
       </c>
       <c r="G5" t="n">
-        <v>36968.44</v>
-      </c>
-      <c r="H5" t="n">
-        <v>35296.51</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35435.91</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36387.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>37439.48</v>
-      </c>
-      <c r="L5" t="n">
-        <v>34779.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44847.47</v>
+        <v>40962.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>140889.91</v>
+      </c>
       <c r="C6" t="n">
-        <v>232168.01</v>
+        <v>141652.07</v>
       </c>
       <c r="D6" t="n">
-        <v>230228.56</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>144937.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>143746.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>141894.31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>142763.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140174.34</v>
+        <v>563559.63</v>
       </c>
       <c r="C7" t="n">
-        <v>156360.61</v>
+        <v>566608.29</v>
       </c>
       <c r="D7" t="n">
-        <v>159169.55</v>
+        <v>579751.2</v>
       </c>
       <c r="E7" t="n">
-        <v>141531.11</v>
+        <v>574984.38</v>
       </c>
       <c r="F7" t="n">
-        <v>141715.92</v>
+        <v>567577.23</v>
       </c>
       <c r="G7" t="n">
-        <v>139694.38</v>
-      </c>
-      <c r="H7" t="n">
-        <v>140883.29</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138657.42</v>
-      </c>
-      <c r="J7" t="n">
-        <v>140589.47</v>
-      </c>
-      <c r="K7" t="n">
-        <v>140051.28</v>
-      </c>
-      <c r="L7" t="n">
-        <v>140721.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>140889.91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>560697.37</v>
-      </c>
-      <c r="C8" t="n">
-        <v>781803.0699999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>795847.77</v>
-      </c>
-      <c r="E8" t="n">
-        <v>566124.4300000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>566863.66</v>
-      </c>
-      <c r="G8" t="n">
-        <v>558777.51</v>
-      </c>
-      <c r="H8" t="n">
-        <v>563533.16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>554629.66</v>
-      </c>
-      <c r="J8" t="n">
-        <v>562357.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>560205.13</v>
-      </c>
-      <c r="L8" t="n">
-        <v>562884.99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>563559.63</v>
+        <v>571053.67</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>250446.63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>244796.51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>248279.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>251574.31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>247890.23</v>
+      </c>
+      <c r="G2" t="n">
+        <v>249037.44</v>
+      </c>
+      <c r="H2" t="n">
+        <v>251941.62</v>
+      </c>
+      <c r="I2" t="n">
+        <v>244553.76</v>
+      </c>
+      <c r="J2" t="n">
+        <v>247086.31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>247033.74</v>
+      </c>
+      <c r="L2" t="n">
+        <v>245122.79</v>
+      </c>
+      <c r="M2" t="n">
         <v>247080.14</v>
-      </c>
-      <c r="C2" t="n">
-        <v>249889.11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>256999.09</v>
-      </c>
-      <c r="E2" t="n">
-        <v>251345.96</v>
-      </c>
-      <c r="F2" t="n">
-        <v>252339.28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>251178.35</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>251985.17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>250883.82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>255162.84</v>
+      </c>
+      <c r="E3" t="n">
+        <v>249070.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>251798.89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250163.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>254741.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>255068.02</v>
+      </c>
+      <c r="J3" t="n">
+        <v>259282.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>256103.58</v>
+      </c>
+      <c r="L3" t="n">
+        <v>259366.74</v>
+      </c>
+      <c r="M3" t="n">
         <v>248732.63</v>
-      </c>
-      <c r="C3" t="n">
-        <v>258336.55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>252737.49</v>
-      </c>
-      <c r="E3" t="n">
-        <v>255848.52</v>
-      </c>
-      <c r="F3" t="n">
-        <v>251835.13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>254499.62</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>21066.07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19393.31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21144.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21747.42</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21653.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22608.18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21553.89</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19571.97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19602.27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19628.33</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23616.06</v>
+      </c>
+      <c r="M4" t="n">
         <v>22899.39</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23271.93</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23285.61</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22286.99</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24994.81</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24412.78</v>
       </c>
     </row>
     <row r="5">
@@ -547,72 +631,149 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>37199.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34561.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41032.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43731.78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45521.09</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36968.44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35296.51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35435.91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36387.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37439.48</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34779.4</v>
+      </c>
+      <c r="M5" t="n">
         <v>44847.47</v>
-      </c>
-      <c r="C5" t="n">
-        <v>35110.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46729.01</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45502.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38408.01</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40962.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>140889.91</v>
-      </c>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>141652.07</v>
+        <v>232168.01</v>
       </c>
       <c r="D6" t="n">
-        <v>144937.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>143746.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>141894.31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>142763.42</v>
-      </c>
+        <v>230228.56</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>140174.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>156360.61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>159169.55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>141531.11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>141715.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>139694.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>140883.29</v>
+      </c>
+      <c r="I7" t="n">
+        <v>138657.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>140589.47</v>
+      </c>
+      <c r="K7" t="n">
+        <v>140051.28</v>
+      </c>
+      <c r="L7" t="n">
+        <v>140721.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>140889.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
+        <v>560697.37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>781803.0699999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>795847.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>566124.4300000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>566863.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>558777.51</v>
+      </c>
+      <c r="H8" t="n">
+        <v>563533.16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>554629.66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>562357.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>560205.13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>562884.99</v>
+      </c>
+      <c r="M8" t="n">
         <v>563559.63</v>
-      </c>
-      <c r="C7" t="n">
-        <v>566608.29</v>
-      </c>
-      <c r="D7" t="n">
-        <v>579751.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>574984.38</v>
-      </c>
-      <c r="F7" t="n">
-        <v>567577.23</v>
-      </c>
-      <c r="G7" t="n">
-        <v>571053.67</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BHIP.xlsx
+++ b/backend/src/excel_handler/files/BHIP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250446.63</v>
+        <v>247080.14</v>
       </c>
       <c r="C2" t="n">
-        <v>244796.51</v>
+        <v>249889.11</v>
       </c>
       <c r="D2" t="n">
-        <v>248279.1</v>
+        <v>256999.09</v>
       </c>
       <c r="E2" t="n">
-        <v>251574.31</v>
+        <v>251345.96</v>
       </c>
       <c r="F2" t="n">
-        <v>247890.23</v>
+        <v>252339.28</v>
       </c>
       <c r="G2" t="n">
-        <v>249037.44</v>
+        <v>251178.35</v>
       </c>
       <c r="H2" t="n">
-        <v>251941.62</v>
+        <v>243799.32</v>
       </c>
       <c r="I2" t="n">
-        <v>244553.76</v>
+        <v>250395.49</v>
       </c>
       <c r="J2" t="n">
-        <v>247086.31</v>
+        <v>243093.11</v>
       </c>
       <c r="K2" t="n">
-        <v>247033.74</v>
+        <v>243740.44</v>
       </c>
       <c r="L2" t="n">
-        <v>245122.79</v>
+        <v>243685.75</v>
       </c>
       <c r="M2" t="n">
-        <v>247080.14</v>
+        <v>245240.24</v>
+      </c>
+      <c r="N2" t="n">
+        <v>244475.79</v>
+      </c>
+      <c r="O2" t="n">
+        <v>252300.86</v>
+      </c>
+      <c r="P2" t="n">
+        <v>250236.32</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>252572.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>246299.54</v>
+      </c>
+      <c r="S2" t="n">
+        <v>246401.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>249579.51</v>
+      </c>
+      <c r="U2" t="n">
+        <v>241308.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>251923.75</v>
+      </c>
+      <c r="W2" t="n">
+        <v>250968.78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>247206.59</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>241587.73</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>241713.23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>245534.23</v>
       </c>
     </row>
     <row r="3">
@@ -545,150 +657,292 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251985.17</v>
+        <v>248732.63</v>
       </c>
       <c r="C3" t="n">
-        <v>250883.82</v>
+        <v>258336.55</v>
       </c>
       <c r="D3" t="n">
-        <v>255162.84</v>
+        <v>252737.49</v>
       </c>
       <c r="E3" t="n">
-        <v>249070.92</v>
+        <v>255848.52</v>
       </c>
       <c r="F3" t="n">
-        <v>251798.89</v>
+        <v>251835.13</v>
       </c>
       <c r="G3" t="n">
-        <v>250163.45</v>
+        <v>254499.62</v>
       </c>
       <c r="H3" t="n">
-        <v>254741.14</v>
+        <v>249020.96</v>
       </c>
       <c r="I3" t="n">
-        <v>255068.02</v>
+        <v>241101.59</v>
       </c>
       <c r="J3" t="n">
-        <v>259282.25</v>
+        <v>242236.01</v>
       </c>
       <c r="K3" t="n">
-        <v>256103.58</v>
+        <v>249886.57</v>
       </c>
       <c r="L3" t="n">
-        <v>259366.74</v>
+        <v>240743.63</v>
       </c>
       <c r="M3" t="n">
-        <v>248732.63</v>
+        <v>254155.69</v>
+      </c>
+      <c r="N3" t="n">
+        <v>243306.13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>259171.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>244903.85</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>249073.73</v>
+      </c>
+      <c r="R3" t="n">
+        <v>248418.51</v>
+      </c>
+      <c r="S3" t="n">
+        <v>243477.16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>253742.95</v>
+      </c>
+      <c r="U3" t="n">
+        <v>249373.33</v>
+      </c>
+      <c r="V3" t="n">
+        <v>255652.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>251764.66</v>
+      </c>
+      <c r="X3" t="n">
+        <v>252806.72</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>248477.7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>244980.03</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>252370.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>21066.07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19393.31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21144.52</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21747.42</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21653.45</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22608.18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21553.89</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19571.97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19602.27</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19628.33</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23616.06</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22899.39</v>
+          <t>Bull Market</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>1697706.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1700623.38</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1702520.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37199.5</v>
+        <v>22899.39</v>
       </c>
       <c r="C5" t="n">
-        <v>34561.42</v>
+        <v>23271.93</v>
       </c>
       <c r="D5" t="n">
-        <v>41032.75</v>
+        <v>23285.61</v>
       </c>
       <c r="E5" t="n">
-        <v>43731.78</v>
+        <v>22286.99</v>
       </c>
       <c r="F5" t="n">
-        <v>45521.09</v>
+        <v>24994.81</v>
       </c>
       <c r="G5" t="n">
-        <v>36968.44</v>
+        <v>24412.78</v>
       </c>
       <c r="H5" t="n">
-        <v>35296.51</v>
+        <v>25228.1</v>
       </c>
       <c r="I5" t="n">
-        <v>35435.91</v>
+        <v>24168.65</v>
       </c>
       <c r="J5" t="n">
-        <v>36387.05</v>
+        <v>19820.74</v>
       </c>
       <c r="K5" t="n">
-        <v>37439.48</v>
+        <v>20908.63</v>
       </c>
       <c r="L5" t="n">
-        <v>34779.4</v>
+        <v>19987.76</v>
       </c>
       <c r="M5" t="n">
-        <v>44847.47</v>
+        <v>19698.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19810.77</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20156.43</v>
+      </c>
+      <c r="P5" t="n">
+        <v>21149.24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23370.46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>23408.76</v>
+      </c>
+      <c r="S5" t="n">
+        <v>22856.05</v>
+      </c>
+      <c r="T5" t="n">
+        <v>23002.26</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22811.72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>23320.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>24642.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18302.26</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18230.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18064.74</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18536.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44847.47</v>
+      </c>
       <c r="C6" t="n">
-        <v>232168.01</v>
+        <v>35110.7</v>
       </c>
       <c r="D6" t="n">
-        <v>230228.56</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>46729.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45502.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38408.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40962.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>42812.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40846.78</v>
+      </c>
+      <c r="J6" t="n">
+        <v>44369.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46265.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43878.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>42985.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42487.32</v>
+      </c>
+      <c r="O6" t="n">
+        <v>42307.97</v>
+      </c>
+      <c r="P6" t="n">
+        <v>44196.99</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>47978.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>32131.06</v>
+      </c>
+      <c r="S6" t="n">
+        <v>46842.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>47389.13</v>
+      </c>
+      <c r="U6" t="n">
+        <v>32035.29</v>
+      </c>
+      <c r="V6" t="n">
+        <v>32831.42</v>
+      </c>
+      <c r="W6" t="n">
+        <v>34453.07</v>
+      </c>
+      <c r="X6" t="n">
+        <v>34405.69</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>33672.36</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>33461.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34905.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -697,40 +951,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140174.34</v>
+        <v>140889.91</v>
       </c>
       <c r="C7" t="n">
-        <v>156360.61</v>
+        <v>141652.07</v>
       </c>
       <c r="D7" t="n">
-        <v>159169.55</v>
+        <v>144937.8</v>
       </c>
       <c r="E7" t="n">
-        <v>141531.11</v>
+        <v>143746.1</v>
       </c>
       <c r="F7" t="n">
-        <v>141715.92</v>
+        <v>141894.31</v>
       </c>
       <c r="G7" t="n">
-        <v>139694.38</v>
+        <v>142763.42</v>
       </c>
       <c r="H7" t="n">
-        <v>140883.29</v>
+        <v>140215.12</v>
       </c>
       <c r="I7" t="n">
-        <v>138657.42</v>
+        <v>139128.13</v>
       </c>
       <c r="J7" t="n">
-        <v>140589.47</v>
+        <v>137379.89</v>
       </c>
       <c r="K7" t="n">
-        <v>140051.28</v>
+        <v>140200.21</v>
       </c>
       <c r="L7" t="n">
-        <v>140721.25</v>
+        <v>137073.98</v>
       </c>
       <c r="M7" t="n">
-        <v>140889.91</v>
+        <v>140519.87</v>
+      </c>
+      <c r="N7" t="n">
+        <v>137520</v>
+      </c>
+      <c r="O7" t="n">
+        <v>143484.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>140121.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>143248.82</v>
+      </c>
+      <c r="R7" t="n">
+        <v>137564.47</v>
+      </c>
+      <c r="S7" t="n">
+        <v>139894.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>143428.46</v>
+      </c>
+      <c r="U7" t="n">
+        <v>136382.13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>140932.17</v>
+      </c>
+      <c r="W7" t="n">
+        <v>140457.15</v>
+      </c>
+      <c r="X7" t="n">
+        <v>138180.32</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>447934.98</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>447768.64</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>450773.5</v>
       </c>
     </row>
     <row r="8">
@@ -740,40 +1036,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560697.37</v>
+        <v>563559.63</v>
       </c>
       <c r="C8" t="n">
-        <v>781803.0699999999</v>
+        <v>566608.29</v>
       </c>
       <c r="D8" t="n">
-        <v>795847.77</v>
+        <v>579751.2</v>
       </c>
       <c r="E8" t="n">
-        <v>566124.4300000001</v>
+        <v>574984.38</v>
       </c>
       <c r="F8" t="n">
-        <v>566863.66</v>
+        <v>567577.23</v>
       </c>
       <c r="G8" t="n">
-        <v>558777.51</v>
+        <v>571053.67</v>
       </c>
       <c r="H8" t="n">
-        <v>563533.16</v>
+        <v>560860.48</v>
       </c>
       <c r="I8" t="n">
-        <v>554629.66</v>
+        <v>556512.51</v>
       </c>
       <c r="J8" t="n">
-        <v>562357.88</v>
+        <v>549519.5600000001</v>
       </c>
       <c r="K8" t="n">
-        <v>560205.13</v>
+        <v>560800.86</v>
       </c>
       <c r="L8" t="n">
-        <v>562884.99</v>
+        <v>548295.9399999999</v>
       </c>
       <c r="M8" t="n">
-        <v>563559.63</v>
+        <v>562079.47</v>
+      </c>
+      <c r="N8" t="n">
+        <v>550080.01</v>
+      </c>
+      <c r="O8" t="n">
+        <v>573936.76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>560486.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>572995.26</v>
+      </c>
+      <c r="R8" t="n">
+        <v>550257.87</v>
+      </c>
+      <c r="S8" t="n">
+        <v>559577.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>573713.85</v>
+      </c>
+      <c r="U8" t="n">
+        <v>545528.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>563728.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>561828.61</v>
+      </c>
+      <c r="X8" t="n">
+        <v>552721.26</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2239674.89</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2238843.18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2253867.52</v>
       </c>
     </row>
   </sheetData>
